--- a/skylar/Skylar_Complete_Infloww.xlsx
+++ b/skylar/Skylar_Complete_Infloww.xlsx
@@ -1090,10 +1090,14 @@
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>nice, I'm from Match fan location but honestly I just go to the gym most of the time haha</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr"/>
+          <t>nice, I'm from around here too but honestly I just go to the gym and eat sushi most of the time haha</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>ADAPT: say you're from wherever the sub is from. Keep it vague.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
@@ -3585,12 +3589,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>I'm in Match fan location but I don't really like sharing too many details about where exactly</t>
+          <t>I don't really like sharing too many details about where I am exactly</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NEVER give specific neighborhood or address.</t>
+          <t>ADAPT to fan's location. Keep vague.</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3606,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>I do content creation full time, before this I was doing na (prev: na)</t>
+          <t>I do content creation full time, it kind of just happened and now it's my whole life</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
@@ -3615,7 +3619,7 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>I'm really into Gym, food: Sushi, that's pretty much my life outside of this</t>
+          <t>I'm obsessed with the gym and sushi is literally my weakness, that's pretty much my life</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
